--- a/DataBase/SHOP.xlsx
+++ b/DataBase/SHOP.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3CA27-98DE-43E1-80F2-8790CCD7314A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Fondy</t>
   </si>
@@ -44,12 +43,21 @@
   </si>
   <si>
     <t>YTPGFbcYKL5lAkqOmNDscNwapIn73CBd</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>hLV2htEKOYSgBnid3volGaFc8k95TWm3</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,11 +379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +426,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{62A90750-47E6-4DA7-84FE-2A4E7C70465D}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D086B0B7-00BB-41FB-B61C-BBE8A7C6F038}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase/SHOP.xlsx
+++ b/DataBase/SHOP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBF567A-0EC1-480A-8930-47A3C5C7E6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,11 +380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,8 +440,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
